--- a/output/google_maps_data_Kantor_Polisi_Bantul.xlsx
+++ b/output/google_maps_data_Kantor_Polisi_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.890028</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.890028</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.326896</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Bantul/@-7.8900282,110.2547986,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff576b58e70d:0x80c387090b4afb63!8m2!3d-7.8900282!4d110.3268964!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzv5l4s4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,22 +533,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.896403</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.896403</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.337293</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bantul/@-7.8900282,110.2547986,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55f8a0a9c05d:0x377b94c5f297e07b!8m2!3d-7.8964032!4d110.3372926!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzrhlrl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,22 +567,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.889791</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.889791</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.37388</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.8897912,110.3017826,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5663df322d0b:0x54e179062d176be!8m2!3d-7.8897912!4d110.3738804!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptwx6w2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,22 +605,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.905142</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.905142</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.350532</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Satuan+Polisi+Pamong+Praja+(+SATPOL+PP+)+Kabupaten+Bantul/@-7.8897912,110.3017826,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff568ba034a5:0x567695739985e67a!8m2!3d-7.9051418!4d110.3505315!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzs974n0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,25 +642,24 @@
           <t>(0274) 414132</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.811269</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.811269</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.407671</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Banguntapan/@-7.8112693,110.335573,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a572ce297477d:0x1c1c3da4ab34a480!8m2!3d-7.8112693!4d110.4076708!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptw4y9m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Banguntapan/@-7.8112693,110.335573,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a572ce297477d:0x1c1c3da4ab34a480!8m2!3d-7.8112693!4d110.4076708!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptw4y9m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -693,22 +683,21 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.927386</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.927386</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.32015</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bambanglipuro/@-7.9273857,110.2480525,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b0002c375ec43:0x7b97cca205542a65!8m2!3d-7.9273857!4d110.3201503!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzs5kf08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -728,22 +717,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.847246</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.847246</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.360359</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Sektor+Sewon/@-7.8472456,110.2882609,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a564f27d9b8fd:0x1e26b3c5595f379f!8m2!3d-7.8472456!4d110.3603587!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqxcw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -763,22 +751,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.976664</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.976664</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.270275</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sanden/@-7.9766638,110.1981773,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b01c54f59e28d:0x5e6295be5cb1d315!8m2!3d-7.9766638!4d110.2702751!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c6cg6tjq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -794,22 +781,21 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.813063</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.813063</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.355804</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Kulon/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5794beb8f4d1:0xf5dc89f763b359a1!8m2!3d-7.8130626!4d110.3558035!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f_4s5vrz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -824,25 +810,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.836026</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.836026</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.365614</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Unit+Lalu+Lintas+Polsek+Sewon+%22Pos+Druwo%22/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57b2965f08c7:0xa949deff73a0b8e6!8m2!3d-7.8360259!4d110.3656142!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gh0l1s3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Unit+Lalu+Lintas+Polsek+Sewon+%22Pos+Druwo%22/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57b2965f08c7:0xa949deff73a0b8e6!8m2!3d-7.8360259!4d110.3656142!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gh0l1s3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -866,22 +851,21 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.865919</v>
+      </c>
       <c r="G12" t="n">
-        <v>-7.865919</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.404664</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pleret/@-7.8659187,110.3325663,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5697c0228ae7:0x5ed87275848e1ff9!8m2!3d-7.8659187!4d110.4046641!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11b6d2n6s9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -905,22 +889,21 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.828945</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.828945</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.342511</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kasihkan/@-7.828945,110.2704133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57d7498e2547:0x466590f326714714!8m2!3d-7.828945!4d110.3425111!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pztslp_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -940,22 +923,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.910427</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.910427</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.293995</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pandak/@-7.9104267,110.2218967,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affbd0d70b02b:0x9b8184b1cc3278aa!8m2!3d-7.9104267!4d110.2939945!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F11bbrhz7_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -979,22 +961,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7994546,110.2905068,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1009,25 +990,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>-7.909426</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.909426</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.351805</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Bakulan/@-7.9094265,110.2797075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a559783d0e9d1:0x4317b5444d8e5b57!8m2!3d-7.9094265!4d110.3518053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEHNlY3VyaXR5X3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMVmxsWXpWQlJSQULgAQD6AQQIABAz!16s%2Fg%2F11c2pp2f_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Bakulan/@-7.9094265,110.2797075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a559783d0e9d1:0x4317b5444d8e5b57!8m2!3d-7.9094265!4d110.3518053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEHNlY3VyaXR5X3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMVmxsWXpWQlJSQULgAQD6AQQIABAz!16s%2Fg%2F11c2pp2f_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1051,22 +1031,21 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-7.812115</v>
+      </c>
       <c r="G17" t="n">
-        <v>-7.812115</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.270861</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sedayu/@-7.8121154,110.1987632,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7ae35155555553:0x89344234c0c93985!8m2!3d-7.8121154!4d110.270861!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1ptz2j9db?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1090,22 +1069,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.837727</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.837727</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.474793</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Piyungan/@-7.8377272,110.4026949,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a510755adf6bb:0x12aa98fed3f9179d!8m2!3d-7.8377272!4d110.4747927!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzttxmtm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1121,22 +1099,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.929555</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.929555</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.467085</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%AD%EA%A6%B6%EA%A6%94%EA%A6%BA%EA%A6%B4+Polsek+Dlingo/@-7.9295555,110.3949876,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a531bfb314fb9:0x81aef2fe6f84eaa7!8m2!3d-7.9295555!4d110.4670854!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c45nj7mz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1151,25 +1128,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.846698</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.846698</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.344303</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Kasongan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a563047f93443:0x38cc2d389ca86740!8m2!3d-7.8466976!4d110.3443026!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11h9v6zvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Kasongan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a563047f93443:0x38cc2d389ca86740!8m2!3d-7.8466976!4d110.3443026!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11h9v6zvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1197,22 +1173,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1227,25 +1202,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-7.890453</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.890453</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.326575</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satuan+Penyelenggara+Administrasi+SIM+(SATPAS)+Polres+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affe4388a0d63:0x1767a2fedb55ed2c!8m2!3d-7.890453!4d110.3265745!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBHGRlcGFydG1lbnRfb2ZfbW90b3JfdmVoaWNsZXOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTktha3AxWDJWbkVBReABAPoBBQjeARBF!16s%2Fg%2F11fp6p76b8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satuan+Penyelenggara+Administrasi+SIM+(SATPAS)+Polres+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affe4388a0d63:0x1767a2fedb55ed2c!8m2!3d-7.890453!4d110.3265745!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBHGRlcGFydG1lbnRfb2ZfbW90b3JfdmVoaWNsZXOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTktha3AxWDJWbkVBReABAPoBBQjeARBF!16s%2Fg%2F11fp6p76b8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1273,22 +1247,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.818087</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.818087</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.373395</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mergangsan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57a1902789df:0x7bbcff60a2d241a4!8m2!3d-7.8180873!4d110.3733954!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbx0swyj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1307,25 +1280,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1345,22 +1317,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.827951</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.827951</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.354007</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+DONGKELAN/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57c805e97fe7:0x347c6752c45c145!8m2!3d-7.8279507!4d110.3540065!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11g9qshrlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1376,22 +1347,21 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.891219</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.891219</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.325895</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Gose/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff59e468c001:0xaccb83e558ba03d!8m2!3d-7.8912189!4d110.325895!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c522g6_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1407,22 +1377,21 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.867003</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.867003</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.338102</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Cepit+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a561b9f86f129:0x693b44fb0769e1e7!8m2!3d-7.8670033!4d110.3381021!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11crzxx_rd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1437,25 +1406,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>-7.792968</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.792968</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.410387</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polisi+Militer/@-7.7929682,110.3382892,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59e26f1d969f:0x6649074e1f8c92b5!8m2!3d-7.7929682!4d110.410387!15sChRLYW50b3IgUG9saXNpIEJhbnR1bOABAA!16s%2Fg%2F11y46__sd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polisi+Militer/@-7.7929682,110.3382892,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59e26f1d969f:0x6649074e1f8c92b5!8m2!3d-7.7929682!4d110.410387!15sChRLYW50b3IgUG9saXNpIEJhbnR1bOABAA!16s%2Fg%2F11y46__sd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1479,22 +1447,21 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.955864</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.955864</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.344273</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pundong/@-7.9558642,110.2721753,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a555f8fcd0abd:0x39cb3501d8cfd31b!8m2!3d-7.9558642!4d110.3442731!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzsfhxf9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1509,25 +1476,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>-7.799716</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.799716</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.330136</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1550,25 +1516,24 @@
           <t>(0274) 367682</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-8.020832</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.020832</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.32765</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Kretek/@-8.0208322,110.2555524,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b006f091054d9:0x668f87d1c68ba242!8m2!3d-8.0208322!4d110.3276502!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGNpdmlsX3BvbGljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRHRjJZVGhuUlJBQuABAPoBBAgAECc!16s%2Fg%2F1pzwkxdk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Kretek/@-8.0208322,110.2555524,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b006f091054d9:0x668f87d1c68ba242!8m2!3d-8.0208322!4d110.3276502!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGNpdmlsX3BvbGljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRHRjJZVGhuUlJBQuABAPoBBAgAECc!16s%2Fg%2F1pzwkxdk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1587,25 +1552,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.83681</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.83681</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.391718</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pos+Polisi+Gondowulung/@-7.8368096,110.3196205,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a56e2bc383e1d:0x9c85d7170f8d44c7!8m2!3d-7.8368096!4d110.3917183!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11f3v5kbbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pos+Polisi+Gondowulung/@-7.8368096,110.3196205,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a56e2bc383e1d:0x9c85d7170f8d44c7!8m2!3d-7.8368096!4d110.3917183!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11f3v5kbbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1633,22 +1597,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.891228</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.891228</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.278763</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pajangan/@-7.8912278,110.2066653,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b002a099f453b:0x831b7b5bfeb36e79!8m2!3d-7.8912278!4d110.2787631!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1pzt6k4m9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1664,22 +1627,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.865522</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.865522</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.309037</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Cakruk+Guyup+Rukun/@-7.8912278,110.2066653,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8bf33c07c8f:0x9e8854f6c26361a8!8m2!3d-7.8655222!4d110.3090368!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11cmhw0r_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1695,22 +1657,21 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.890142</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.890142</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.326661</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Layanan+SKCK/@-7.890142,110.2545633,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff576617a61b:0x9a84ba6c4af25093!8m2!3d-7.890142!4d110.3266611!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11gflzxzhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1730,22 +1691,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.940552</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.940552</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.245243</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Srandakan/@-7.9405521,110.1731456,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7afe6e883ff9bb:0xbb1515d654883f8c!8m2!3d-7.9405521!4d110.2452434!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzqy5w44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1765,22 +1725,21 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.96755</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.96755</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.336839</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+BBG+Lipuro-BTL/@-7.96755,110.2647412,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7baaa955555533:0x3ba9fbf1ee92cf37!8m2!3d-7.96755!4d110.336839!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1q62g0wsm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1800,22 +1759,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.885701</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.885701</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.330676</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pospol+Dongkelan/@-7.885701,110.2585782,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff5603d3f1e1:0x58e5718d5c3cca2d!8m2!3d-7.885701!4d110.330676!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1q62dlm7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1838,25 +1796,24 @@
           <t>(0274) 367404</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.7</v>
+        <v>-7.883441</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.883441</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.332073</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.885701,110.2585782,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGmRpc3RyaWN0X2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0TUc4eWJGQm5FQUXgAQD6AQQIABA5!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1880,22 +1837,21 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7830317,110.2878047,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1910,25 +1866,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.828621</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.828621</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.408143</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Jogoragan(%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.8286214,110.3360455,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57a78e96b38f:0x1f194640be8c35e5!8m2!3d-7.8286214!4d110.4081433!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gsctbprb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1944,22 +1899,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.826711</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.826711</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.345003</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Perempatan+RINGROAD+Madukismo/@-7.8267111,110.2729052,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57c56d5afe77:0x72b2749cdac05190!8m2!3d-7.8267111!4d110.345003!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fy7bk2ss?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1982,25 +1936,24 @@
           <t>(0274) 4538739</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.6</v>
+        <v>-7.79932</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.79932</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.402544</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SATPOL+PP+Daerah+Istimewa+Yogyakarta/@-7.7993204,110.330446,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a575dfdc16a87:0xa712f78ce370d312!8m2!3d-7.7993204!4d110.4025438!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGnJlZ2lvbmFsX2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sYlUxMk9WaG5FQUXgAQD6AQQIABAU!16s%2Fg%2F11c0wdxcvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SATPOL+PP+Daerah+Istimewa+Yogyakarta/@-7.7993204,110.330446,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a575dfdc16a87:0xa712f78ce370d312!8m2!3d-7.7993204!4d110.4025438!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGnJlZ2lvbmFsX2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sYlUxMk9WaG5FQUXgAQD6AQQIABAU!16s%2Fg%2F11c0wdxcvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2027,25 +1980,24 @@
           <t>(0274) 367483</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.9</v>
+        <v>-7.891765</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.891765</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.329852</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.2577541,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDmxpY2Vuc2VfYnVyZWF1mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10T1dKbFlrdDNFQUXgAQD6AQUI1wEQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.2577541,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDmxpY2Vuc2VfYnVyZWF1mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10T1dKbFlrdDNFQUXgAQD6AQUI1wEQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -2064,25 +2016,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.811802</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.811802</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.40927</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pospol+Ketandan/@-7.8118021,110.3371719,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d94ef541:0x5e759670664d9d4f!8m2!3d-7.8118021!4d110.4092697!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhOa3RwVG5oUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11c6vnz3cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pospol+Ketandan/@-7.8118021,110.3371719,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d94ef541:0x5e759670664d9d4f!8m2!3d-7.8118021!4d110.4092697!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhOa3RwVG5oUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11c6vnz3cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2109,25 +2060,24 @@
           <t>(0274) 367348</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.890949</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.890949</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.325159</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD2NpdHlfY291cnRob3VzZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREVXRabWRuUlJBQuABAPoBBAgeECo!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD2NpdHlfY291cnRob3VzZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREVXRabWRuUlJBQuABAPoBBAgeECo!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2147,22 +2097,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.868055</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.868055</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.351589</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Tembi/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57f9b3259d75:0x8a9b683e587a669f!8m2!3d-7.8680549!4d110.351589!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11rp3473v9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2186,22 +2135,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.822656</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.822656</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.39897</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kotagede/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5716131e9a83:0x8425fe94d512223c!8m2!3d-7.8226561!4d110.3989696!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tx1krnh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2217,22 +2165,21 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-7.923045</v>
+      </c>
       <c r="G49" t="n">
-        <v>-7.923045</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.387156</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Imogiri/@-7.9230455,110.3150578,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55aaec988187:0x856e239c045d8d6d!8m2!3d-7.9230455!4d110.3871556!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzrvj75t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2255,25 +2202,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2293,22 +2239,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.788025</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.788025</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.359639</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ditlantas+Polda+DIY/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5823720266d5:0x4dfe2e7e5b1f3170!8m2!3d-7.7880249!4d110.3596386!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1hm43_n9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2331,25 +2276,24 @@
           <t>(0274) 6462100</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.6</v>
+        <v>-7.899423</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.899423</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.321905</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BPBD+Bantul/@-7.8994233,110.2498075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff5d09c78d4b:0x886d9763b0360fe3!8m2!3d-7.8994233!4d110.3219053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYYnkxdVNFVjNFQUXgAQD6AQUIswQQQA!16s%2Fg%2F11c0pzf8d6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2364,25 +2308,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.811872</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.811872</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.409273</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Lantas+Simpang+Ketandan/@-7.8118717,110.3371756,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d1a80521:0x877d77b696583563!8m2!3d-7.8118717!4d110.4092734!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE5rMXBNVWhCRUFF4AEA-gEECAAQHw!16s%2Fg%2F11dxl29d31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2401,25 +2344,24 @@
           <t>(0274) 368222</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.9</v>
+        <v>-7.829492</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.829492</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.335827</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DAMKAR+Kabupaten+Bantul/@-7.8294924,110.2637292,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57f7ad06e329:0x5fd81f509cecf949!8m2!3d-7.8294924!4d110.335827!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGZpcmVfc3RhdGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWNGOWliV2xuUlJBQuABAPoBBAgAECo!16s%2Fg%2F11fv1gb62n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2435,22 +2377,21 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.838199</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.838199</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.475993</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Piyungan/@-7.8381987,110.4038952,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a51a9bd38cb13:0xc7b5b627d181e32d!8m2!3d-7.8381987!4d110.475993!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11cnc0ctxw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2466,22 +2407,21 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.828791</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.828791</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.409827</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+pos+polisi/@-7.8287915,110.3377287,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a570053667495:0x4c7b2b247f806c7a!8m2!3d-7.8287915!4d110.4098265!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBC3Bvc3Rfb2ZmaWNl4AEA!16s%2Fg%2F11vyyc_gq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2501,22 +2441,21 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-7.762193</v>
+      </c>
       <c r="G57" t="n">
-        <v>-7.762193</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.415376</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Timur/@-7.7621926,110.3432783,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59a19b0b3c1d:0x25df91e47423b2!8m2!3d-7.7621926!4d110.4153761!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzt98j26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2532,22 +2471,21 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>-7.881776</v>
+      </c>
       <c r="G58" t="n">
-        <v>-7.881776</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.332627</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Posko+ETLE/@-7.8817755,110.260529,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55eaf459c3d3:0x440dd1704b6034d0!8m2!3d-7.8817755!4d110.3326268!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11sc0c00dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2566,25 +2504,24 @@
           <t>(0274) 557111</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.770448</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.770448</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.38492</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.7704482,110.3128218,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2599,25 +2536,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>-7.822181</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.822181</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.328232</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Simpang+Empat+Kasihan/@-7.8221815,110.2561343,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af928b5b4fa27:0xf2ff8360f116bb5b!8m2!3d-7.8221815!4d110.3282321!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGFXSjJjSGhuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11frt6_4hx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2637,22 +2573,21 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>-7.83778</v>
+      </c>
       <c r="G61" t="n">
-        <v>-7.83778</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.392211</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kompi+Brimob+Gondo+Wulung/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5453b4b6a971:0xb8dce3c8cb40aac5!8m2!3d-7.8377801!4d110.3922111!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1z44qt9yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2675,25 +2610,24 @@
           <t>(0274) 382849</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.1</v>
+        <v>-7.806891</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.806891</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.402547</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Banguntapan/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57427fdba893:0xb33a91d740d0f003!8m2!3d-7.8068915!4d110.4025471!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5TkhGaWNUTjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b621yl9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Banguntapan/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57427fdba893:0xb33a91d740d0f003!8m2!3d-7.8068915!4d110.4025471!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5TkhGaWNUTjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b621yl9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2712,25 +2646,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.909784</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.909784</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.352062</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lampu+merah+bakulan/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5547b974838f:0x4692957f21f1be5b!8m2!3d-7.9097845!4d110.3520619!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWIzVnhTbE5uRUFF4AEA-gEECAAQGg!16s%2Fg%2F11n5rx5n42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lampu+merah+bakulan/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5547b974838f:0x4692957f21f1be5b!8m2!3d-7.9097845!4d110.3520619!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWIzVnhTbE5uRUFF4AEA-gEECAAQGg!16s%2Fg%2F11n5rx5n42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2757,25 +2690,24 @@
           <t>(0274) 6460181</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.2</v>
+        <v>-7.905111</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.905111</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.347578</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IYzNGNWRuWm5SUkFC4AEA-gEECGMQKw!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2791,22 +2723,21 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-7.814102</v>
+      </c>
       <c r="G65" t="n">
-        <v>-7.814102</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.256969</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Sedayu/@-7.8141017,110.184871,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af9e853b6aaed:0x4bc47b8e6436643!8m2!3d-7.8141017!4d110.2569688!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c4rlc2d0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
